--- a/test.xlsx
+++ b/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>адрес</t>
   </si>
@@ -45,16 +45,61 @@
     <t>850 Brunch собаки ягненок</t>
   </si>
   <si>
-    <t>4.10.2023</t>
-  </si>
-  <si>
-    <t>08.09.2024</t>
-  </si>
-  <si>
-    <t>3.08.2019</t>
-  </si>
-  <si>
     <t>21.12.2022</t>
+  </si>
+  <si>
+    <t>850 Brunch собаки рубец</t>
+  </si>
+  <si>
+    <t>07.07.2025</t>
+  </si>
+  <si>
+    <t>850 Вкусмясина собаки индейка</t>
+  </si>
+  <si>
+    <t>850 Вкусмясина собаки потрошки</t>
+  </si>
+  <si>
+    <t>23.12.2025</t>
+  </si>
+  <si>
+    <t>02.06.2024</t>
+  </si>
+  <si>
+    <t>14.07.2025</t>
+  </si>
+  <si>
+    <t>340 Вкусмясина собаки печень</t>
+  </si>
+  <si>
+    <t>340 Вкусмясина собаки сердце</t>
+  </si>
+  <si>
+    <t>12.08.2025</t>
+  </si>
+  <si>
+    <t>13.07.2025</t>
+  </si>
+  <si>
+    <t>04.10.2023</t>
+  </si>
+  <si>
+    <t>03.08.2019</t>
+  </si>
+  <si>
+    <t>8.09.2024</t>
+  </si>
+  <si>
+    <t>340 Золотая_линия собаки страус</t>
+  </si>
+  <si>
+    <t>340 Золотая_линия собаки утка</t>
+  </si>
+  <si>
+    <t>12.02.2025</t>
+  </si>
+  <si>
+    <t>15.04.2025</t>
   </si>
 </sst>
 </file>
@@ -90,9 +135,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -432,119 +483,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="37.625" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>1023</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1091</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1114</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>1124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>1323</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1434</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2091</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2163</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2164</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2356</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>3115</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>3182</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>3456</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>3471</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>4126</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4252</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>5251</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>5482</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>6163</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5251</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2164</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4252</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2091</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3456</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6163</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>10</v>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>6334</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C23">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
